--- a/trunk/SEP/Database/Test Not Coverage 1.xlsx
+++ b/trunk/SEP/Database/Test Not Coverage 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>T096498</t>
   </si>
@@ -48,9 +48,6 @@
     <t>T033567</t>
   </si>
   <si>
-    <t>29/12/2002</t>
-  </si>
-  <si>
     <t>29/2/2001</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Nhuận</t>
   </si>
   <si>
-    <t>Trùng MS Sinh</t>
-  </si>
-  <si>
     <t>T000000</t>
   </si>
   <si>
@@ -163,6 +157,18 @@
   </si>
   <si>
     <t>1 Đường 01</t>
+  </si>
+  <si>
+    <t>T000003</t>
+  </si>
+  <si>
+    <t>29/14/2002</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Quá Số</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,39 +536,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>33239</v>
@@ -571,13 +577,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -585,25 +591,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -623,13 +629,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -637,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -649,22 +655,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
@@ -673,13 +679,13 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -687,51 +693,51 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
